--- a/biology/Botanique/Deflandreaceae/Deflandreaceae.xlsx
+++ b/biology/Botanique/Deflandreaceae/Deflandreaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Deflandreaceae sont une famille d'algues dinoflagellées de l’ordre des Peridiniales.
-Le genre Deflandrea est une organisme fossile découvert dans les bassins côtiers de l'état de Victora en Australie, dans les étages géologiques paléocènes et éocènes[2],[3].
+Le genre Deflandrea est une organisme fossile découvert dans les bassins côtiers de l'état de Victora en Australie, dans les étages géologiques paléocènes et éocènes,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Deflandrea[note 1], donné en hommage au  naturaliste,  protistologiste et micropaléontologue français Georges Deflandre.
 </t>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 janvier 2022)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 janvier 2022)
 Abratopdinium, S.Mao &amp; B.A.R.Mohr
 Kisselovia, Vozzhennikova
 Lentinia, Bujak
@@ -556,7 +572,7 @@
 Subtilisphaera, Jain &amp; Millepied
 Svalbardella,	S.B.Manum
 Une grand nombre de genres fossiles ont été décrits, dont le genre type :
-† Deflandrea, Eisenack, 1938[3]</t>
+† Deflandrea, Eisenack, 1938</t>
         </is>
       </c>
     </row>
